--- a/medicine/Sexualité et sexologie/Forbidden_Games/Forbidden_Games.xlsx
+++ b/medicine/Sexualité et sexologie/Forbidden_Games/Forbidden_Games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Forbidden Games est un thriller érotique américain réalisé par Edward Holzman et sorti en 1999
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Brandon est un enquêteur privé doté de pouvoir extrasensoriels lui permettant de résoudre des énigmes policières compliquées. Il est embauché afin d'enquêter sur la mort mystérieuse de Charles Douglas, l'enquête officielle étant au point mort. Plusieurs personnes, sa femme, sa fille, sa maîtresse… peuvent bénéficier de son héritage, mais la justice a bloqué les fonds tant que l'enquête officielle n'est pas aboutie.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Forbidden Games
 Réalisateur : Edward Holzman
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jeff Griggs : Michael Brandon
 Lesli Kay : Shannon Douglas, la fille de Charles
@@ -630,7 +648,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est sorti en DVD chez Contact Films en 2002
 </t>
